--- a/.idea/files/Evaluation/Round3/ROUND3_v14_65_69_CEA.xlsx
+++ b/.idea/files/Evaluation/Round3/ROUND3_v14_65_69_CEA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rve\UNamur\MA1\IALTEM\Projet\STI-Thesis\.idea\files\Evaluation\Round3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rve\Downloads\Round3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="CEA" sheetId="2" r:id="rId1"/>
     <sheet name="Results" sheetId="1" r:id="rId2"/>
+    <sheet name="Results + Add column" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="211">
   <si>
     <t>http://dbpedia.org/ontology/Colour</t>
   </si>
@@ -557,13 +558,109 @@
   </si>
   <si>
     <t>F1 Score</t>
+  </si>
+  <si>
+    <t>http://dbpedia.org/ontology/colourHexCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 008080 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00FFFF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FFFF00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40E0D0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3E8EDE </t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">483C32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2B48C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAD6A5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4D96F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4682B4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00FF80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7FC00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">708090 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87CEEB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFFFF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7F00FF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFC0CB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF8000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF00FF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5F5DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">89CFF0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBCEB1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3DDC84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFBF00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F19CBB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E32636 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F0F8FF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B0BF1A </t>
+  </si>
+  <si>
+    <t>added column</t>
+  </si>
+  <si>
+    <t>no added column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +681,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -622,12 +733,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -931,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,6 +1747,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>175</v>
@@ -1655,6 +1776,35 @@
       </c>
       <c r="B41">
         <f xml:space="preserve"> (2*B39*B40)/(B39+B40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47">
         <v>1</v>
       </c>
     </row>
@@ -1664,6 +1814,7 @@
     <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1671,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2227,4 +2378,663 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>